--- a/biology/Histoire de la zoologie et de la botanique/Anne-Marie_Homolle/Anne-Marie_Homolle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anne-Marie_Homolle/Anne-Marie_Homolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Marie Homolle, née le 13 mai 1912 à Sidi-Fredj en Algérie et décédée le 6 septembre 2006 à Annecy, est une botaniste française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait ses études sur la carpologie des Daucinae et d'autres plantes nord-africaines à la faculté des sciences d'Alger.  
-Elle travaille au sein du laboratoire de phanérogamie du Muséum national d'histoire naturelle. Elle collecte des plantes au Congo et principalement à Madagascar. Elle identifie au moins 260 espèces de plantes originaires de Madagascar, et deux genres sont nommés en son honneur : Homollea et Homolliella[1]. 
+Elle travaille au sein du laboratoire de phanérogamie du Muséum national d'histoire naturelle. Elle collecte des plantes au Congo et principalement à Madagascar. Elle identifie au moins 260 espèces de plantes originaires de Madagascar, et deux genres sont nommés en son honneur : Homollea et Homolliella. 
 Elle épouse Maurice Le Genissel en 1946.
 Elle est membre de la Société botanique de France de 1936 à son décès.
 </t>
